--- a/evaluation/results/isolation_forest/augmented/magnitude_1/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/magnitude_1/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7069288389513109</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="C2">
-        <v>0.8358662613981763</v>
+        <v>0.5527156549520766</v>
       </c>
       <c r="D2">
-        <v>0.5149812734082397</v>
+        <v>0.9719101123595506</v>
       </c>
       <c r="E2">
-        <v>0.6373117033603708</v>
+        <v>0.7046843177189409</v>
       </c>
       <c r="F2">
-        <v>0.5578093306288032</v>
+        <v>0.8439024390243902</v>
       </c>
       <c r="G2">
-        <v>0.5226990277067037</v>
+        <v>0.9443627965567919</v>
       </c>
       <c r="H2">
-        <v>0.7069288389513109</v>
+        <v>0.7882772938321481</v>
       </c>
       <c r="I2">
-        <v>275</v>
+        <v>519</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>420</v>
       </c>
       <c r="K2">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="L2">
-        <v>259</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6495263870094723</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="C2">
-        <v>0.898876404494382</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="D2">
-        <v>0.7541241162608012</v>
+        <v>0.3438914027149321</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8358662613981763</v>
+        <v>0.5527156549520766</v>
       </c>
       <c r="C3">
-        <v>0.5149812734082397</v>
+        <v>0.9719101123595506</v>
       </c>
       <c r="D3">
-        <v>0.6373117033603708</v>
+        <v>0.7046843177189409</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7069288389513109</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="C4">
-        <v>0.7069288389513109</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="D4">
-        <v>0.7069288389513109</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="E4">
-        <v>0.7069288389513109</v>
+        <v>0.5926966292134831</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7426963242038243</v>
+        <v>0.7182182925923174</v>
       </c>
       <c r="C5">
-        <v>0.7069288389513109</v>
+        <v>0.5926966292134832</v>
       </c>
       <c r="D5">
-        <v>0.695717909810586</v>
+        <v>0.5242878602169365</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7426963242038244</v>
+        <v>0.7182182925923174</v>
       </c>
       <c r="C6">
-        <v>0.7069288389513109</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="D6">
-        <v>0.695717909810586</v>
+        <v>0.5242878602169364</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>275</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
